--- a/src/json/template1.xlsx
+++ b/src/json/template1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJ\NODE\nest-prisma-postgres-1\src\json\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJ\NODE\nest-eav-test-2\nest-eav-test\src\json\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9942A45A-589E-49D6-9598-83CC031F0C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FCFCB5-8D16-48FA-83E3-2386ACC78BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>Название</t>
   </si>
@@ -60,30 +60,9 @@
     <t>#0.*.key</t>
   </si>
   <si>
-    <t>#0.*.1_2</t>
-  </si>
-  <si>
-    <t>#0.*.1_3</t>
-  </si>
-  <si>
-    <t>#0.*.1_4</t>
-  </si>
-  <si>
-    <t>#0.*.2_1</t>
-  </si>
-  <si>
-    <t>#0.*.2_2</t>
-  </si>
-  <si>
     <t>=SUM(B*:G*)</t>
   </si>
   <si>
-    <t>=SUM(B*:B*)</t>
-  </si>
-  <si>
-    <t>=SUM(C*:C*)</t>
-  </si>
-  <si>
     <t>=SUM(D*:D*)</t>
   </si>
   <si>
@@ -133,6 +112,33 @@
   </si>
   <si>
     <t>C#.1.1 - cell type.ent.att</t>
+  </si>
+  <si>
+    <t>#0.*.1_2.C2.1.2</t>
+  </si>
+  <si>
+    <t>#0.*.1_3.C3.1.3</t>
+  </si>
+  <si>
+    <t>#0.*.1_4.C4.1.4</t>
+  </si>
+  <si>
+    <t>#0.*.2_1.C5.1.5</t>
+  </si>
+  <si>
+    <t>#0.*.2_2.C1.2.2</t>
+  </si>
+  <si>
+    <t>#0.*.2_1.C2.2.1</t>
+  </si>
+  <si>
+    <t>#0.*.2_2.C2.2.2</t>
+  </si>
+  <si>
+    <t>=SUM(B*:B*).C1.1.1</t>
+  </si>
+  <si>
+    <t>=SUM(C*:C*).C1.1.1</t>
   </si>
 </sst>
 </file>
@@ -244,11 +250,11 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -532,100 +538,97 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.44140625" customWidth="1"/>
     <col min="10" max="10" width="16.109375" customWidth="1"/>
     <col min="13" max="13" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>25</v>
       </c>
+      <c r="B1" s="10" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>26</v>
+      <c r="B2" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>27</v>
+      <c r="B3" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>28</v>
+      <c r="B4" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>29</v>
+      <c r="B5" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>30</v>
+      <c r="B6" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>31</v>
+      <c r="B7" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9" t="s">
+      <c r="E11" s="11"/>
+      <c r="F11" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="9"/>
+      <c r="G11" s="11"/>
       <c r="H11" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="J11" s="9"/>
+      <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
@@ -664,63 +667,63 @@
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="I13" s="2" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="J14" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/src/json/template1.xlsx
+++ b/src/json/template1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJ\NODE\nest-eav-test-2\nest-eav-test\src\json\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FCFCB5-8D16-48FA-83E3-2386ACC78BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F5409F-66F8-44EE-B4BD-5D615CC66D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>Название</t>
   </si>
@@ -123,22 +123,25 @@
     <t>#0.*.1_4.C4.1.4</t>
   </si>
   <si>
-    <t>#0.*.2_1.C5.1.5</t>
-  </si>
-  <si>
-    <t>#0.*.2_2.C1.2.2</t>
-  </si>
-  <si>
-    <t>#0.*.2_1.C2.2.1</t>
-  </si>
-  <si>
-    <t>#0.*.2_2.C2.2.2</t>
-  </si>
-  <si>
     <t>=SUM(B*:B*).C1.1.1</t>
   </si>
   <si>
     <t>=SUM(C*:C*).C1.1.1</t>
+  </si>
+  <si>
+    <t>#0.*.2_2</t>
+  </si>
+  <si>
+    <t>#0.*.2_1</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>#0.*.2_2.C7.2.2</t>
+  </si>
+  <si>
+    <t>#0.*.2_1.C6.1.5</t>
   </si>
 </sst>
 </file>
@@ -538,7 +541,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -597,7 +600,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -605,6 +608,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -679,19 +690,19 @@
         <v>28</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>8</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -699,10 +710,10 @@
         <v>16</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>9</v>

--- a/src/json/template1.xlsx
+++ b/src/json/template1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJ\NODE\nest-eav-test-2\nest-eav-test\src\json\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F5409F-66F8-44EE-B4BD-5D615CC66D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA2D5EB-E42A-45EB-8B21-D2EEED19D7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>Название</t>
   </si>
@@ -87,33 +87,6 @@
     <t>СУММА 1</t>
   </si>
   <si>
-    <t>#0.*.1_1.C1.1.1</t>
-  </si>
-  <si>
-    <t>Cell Type</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>numeric</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>checkbox</t>
-  </si>
-  <si>
-    <t>dropdown</t>
-  </si>
-  <si>
-    <t>C#.1.1 - cell type.ent.att</t>
-  </si>
-  <si>
     <t>#0.*.1_2.C2.1.2</t>
   </si>
   <si>
@@ -123,25 +96,25 @@
     <t>#0.*.1_4.C4.1.4</t>
   </si>
   <si>
-    <t>=SUM(B*:B*).C1.1.1</t>
-  </si>
-  <si>
-    <t>=SUM(C*:C*).C1.1.1</t>
-  </si>
-  <si>
     <t>#0.*.2_2</t>
   </si>
   <si>
     <t>#0.*.2_1</t>
   </si>
   <si>
-    <t>datetime</t>
-  </si>
-  <si>
     <t>#0.*.2_2.C7.2.2</t>
   </si>
   <si>
     <t>#0.*.2_1.C6.1.5</t>
+  </si>
+  <si>
+    <t>=SUM(B*:B*).C1.5.5</t>
+  </si>
+  <si>
+    <t>=SUM(C*:C*).C1.5.4</t>
+  </si>
+  <si>
+    <t>#0.*.1_1.C2.1.1</t>
   </si>
 </sst>
 </file>
@@ -169,22 +142,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,19 +171,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,20 +203,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="4" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -538,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,199 +514,148 @@
     <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.44140625" customWidth="1"/>
     <col min="10" max="10" width="16.109375" customWidth="1"/>
+    <col min="11" max="11" width="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4">
         <v>4</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
-        <v>6</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
-        <v>7</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/json/template1.xlsx
+++ b/src/json/template1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJ\NODE\nest-eav-test-2\nest-eav-test\src\json\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA2D5EB-E42A-45EB-8B21-D2EEED19D7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF2D5EB-B00E-408E-8F79-9D6BF3B48122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>Название</t>
   </si>
@@ -105,9 +105,6 @@
     <t>#0.*.2_2.C7.2.2</t>
   </si>
   <si>
-    <t>#0.*.2_1.C6.1.5</t>
-  </si>
-  <si>
     <t>=SUM(B*:B*).C1.5.5</t>
   </si>
   <si>
@@ -115,6 +112,12 @@
   </si>
   <si>
     <t>#0.*.1_1.C2.1.1</t>
+  </si>
+  <si>
+    <t>#0.*.2_1.C6.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -208,9 +211,6 @@
     <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -219,6 +219,9 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -503,7 +506,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -519,26 +522,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="9"/>
+      <c r="F1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="4"/>
+      <c r="G1" s="9"/>
       <c r="H1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="4"/>
+      <c r="J1" s="9"/>
       <c r="K1">
         <v>1</v>
       </c>
@@ -579,34 +584,34 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="K3">
@@ -617,11 +622,11 @@
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
@@ -638,10 +643,10 @@
       <c r="H4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="8" t="s">
         <v>15</v>
       </c>
       <c r="K4">
